--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -11,9 +11,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>IFG Self-Audit</t>
+  </si>
+  <si>
+    <t>Frage</t>
+  </si>
+  <si>
+    <t>Antwort</t>
+  </si>
+  <si>
+    <t>Antwortmöglichkeit</t>
   </si>
   <si>
     <t>Teil 1</t>
@@ -395,7 +404,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -405,6 +414,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FF001C5A"/>
+      <name val="Inter"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color rgb="FF001C5A"/>
       <name val="Inter"/>
       <family val="1"/>
@@ -461,18 +477,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf applyFont="1" fontId="2" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment vertical="top"/>
     </xf>
     <xf applyFont="1" fontId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" fontId="2" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyAlignment="1">
+    <xf applyFont="1" fontId="4" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf applyFont="1" fontId="3" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -519,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I74"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="70" customWidth="1"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
     <col min="4" max="4" hidden="1"/>
-    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
     <col min="6" max="6" hidden="1"/>
     <col min="7" max="7" hidden="1"/>
     <col min="8" max="8" hidden="1"/>
@@ -540,69 +559,59 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    <row r="4" spans="2:5">
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="0">
-        <f>INDIRECT(ADDRESS(6; (C6 + 5)))</f>
-      </c>
-      <c r="E6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="0" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="0">
         <f>INDIRECT(ADDRESS(7; (C7 + 5)))</f>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="0">
         <f>INDIRECT(ADDRESS(8; (C8 + 5)))</f>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -612,18 +621,18 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5"/>
       <c r="D9" s="0">
         <f>INDIRECT(ADDRESS(9; (C9 + 5)))</f>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>5</v>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>1</v>
@@ -632,67 +641,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="0">
         <f>INDIRECT(ADDRESS(10; (C10 + 5)))</f>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>14</v>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="0">
         <f>INDIRECT(ADDRESS(11; (C11 + 5)))</f>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>5</v>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="0">
         <f>INDIRECT(ADDRESS(12; (C12 + 5)))</f>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>5</v>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -702,18 +711,18 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="0">
         <f>INDIRECT(ADDRESS(13; (C13 + 5)))</f>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>5</v>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>1</v>
@@ -722,64 +731,64 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="0">
         <f>INDIRECT(ADDRESS(14; (C14 + 5)))</f>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>23</v>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="0">
         <f>INDIRECT(ADDRESS(15; (C15 + 5)))</f>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
+      <c r="E15" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="0">
         <f>INDIRECT(ADDRESS(16; (C16 + 5)))</f>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>5</v>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -789,18 +798,18 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="B17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="0">
         <f>INDIRECT(ADDRESS(17; (C17 + 5)))</f>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>5</v>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -810,18 +819,18 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="0">
         <f>INDIRECT(ADDRESS(18; (C18 + 5)))</f>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>5</v>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -831,18 +840,18 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="5"/>
       <c r="D19" s="0">
         <f>INDIRECT(ADDRESS(19; (C19 + 5)))</f>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>5</v>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -851,48 +860,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="20" spans="1:7">
+      <c r="A20" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="0">
+        <f>INDIRECT(ADDRESS(20; (C20 + 5)))</f>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="0">
-        <f>INDIRECT(ADDRESS(22; (C22 + 5)))</f>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="0">
         <f>INDIRECT(ADDRESS(23; (C23 + 5)))</f>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>5</v>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -902,18 +911,18 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="3" t="s">
+      <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="0">
         <f>INDIRECT(ADDRESS(24; (C24 + 5)))</f>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>5</v>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -923,18 +932,18 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="B25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="0">
         <f>INDIRECT(ADDRESS(25; (C25 + 5)))</f>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>5</v>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -944,18 +953,18 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="0">
         <f>INDIRECT(ADDRESS(26; (C26 + 5)))</f>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>5</v>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
@@ -965,18 +974,18 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="0">
         <f>INDIRECT(ADDRESS(27; (C27 + 5)))</f>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>5</v>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -986,18 +995,18 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="A28" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="0">
         <f>INDIRECT(ADDRESS(28; (C28 + 5)))</f>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>5</v>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
@@ -1007,18 +1016,18 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="B29" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="0">
         <f>INDIRECT(ADDRESS(29; (C29 + 5)))</f>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
@@ -1027,48 +1036,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="B30" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="0">
+        <f>INDIRECT(ADDRESS(30; (C30 + 5)))</f>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="0">
-        <f>INDIRECT(ADDRESS(32; (C32 + 5)))</f>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="B33" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="5"/>
       <c r="D33" s="0">
         <f>INDIRECT(ADDRESS(33; (C33 + 5)))</f>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>5</v>
+      <c r="E33" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
@@ -1078,18 +1087,18 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="B34" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="0">
         <f>INDIRECT(ADDRESS(34; (C34 + 5)))</f>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>5</v>
+      <c r="E34" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>1</v>
@@ -1099,18 +1108,18 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="5"/>
       <c r="D35" s="0">
         <f>INDIRECT(ADDRESS(35; (C35 + 5)))</f>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>5</v>
+      <c r="E35" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1</v>
@@ -1120,18 +1129,18 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B36" s="3" t="s">
+      <c r="A36" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" s="5"/>
       <c r="D36" s="0">
         <f>INDIRECT(ADDRESS(36; (C36 + 5)))</f>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>5</v>
+      <c r="E36" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>1</v>
@@ -1141,18 +1150,18 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="B37" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="5"/>
       <c r="D37" s="0">
         <f>INDIRECT(ADDRESS(37; (C37 + 5)))</f>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>5</v>
+      <c r="E37" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
@@ -1161,48 +1170,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="2" t="s">
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="B38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="0">
+        <f>INDIRECT(ADDRESS(38; (C38 + 5)))</f>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="D40" s="0">
-        <f>INDIRECT(ADDRESS(40; (C40 + 5)))</f>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="B41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="5"/>
       <c r="D41" s="0">
         <f>INDIRECT(ADDRESS(41; (C41 + 5)))</f>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
+      <c r="E41" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
@@ -1212,18 +1221,18 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="A42" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="5"/>
       <c r="D42" s="0">
         <f>INDIRECT(ADDRESS(42; (C42 + 5)))</f>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>5</v>
+      <c r="E42" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1</v>
@@ -1233,18 +1242,18 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="5"/>
       <c r="D43" s="0">
         <f>INDIRECT(ADDRESS(43; (C43 + 5)))</f>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>5</v>
+      <c r="E43" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1</v>
@@ -1254,18 +1263,18 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="3" t="s">
+      <c r="A44" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="B44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="0">
         <f>INDIRECT(ADDRESS(44; (C44 + 5)))</f>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>5</v>
+      <c r="E44" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
@@ -1275,18 +1284,18 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="4"/>
+      <c r="B45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="5"/>
       <c r="D45" s="0">
         <f>INDIRECT(ADDRESS(45; (C45 + 5)))</f>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>5</v>
+      <c r="E45" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
@@ -1296,18 +1305,18 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="3" t="s">
+      <c r="A46" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="B46" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="5"/>
       <c r="D46" s="0">
         <f>INDIRECT(ADDRESS(46; (C46 + 5)))</f>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>5</v>
+      <c r="E46" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
@@ -1317,18 +1326,18 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C47" s="4"/>
+      <c r="B47" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="0">
         <f>INDIRECT(ADDRESS(47; (C47 + 5)))</f>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>5</v>
+      <c r="E47" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
@@ -1338,18 +1347,18 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="3" t="s">
+      <c r="A48" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="4"/>
+      <c r="B48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="5"/>
       <c r="D48" s="0">
         <f>INDIRECT(ADDRESS(48; (C48 + 5)))</f>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="E48" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
@@ -1359,18 +1368,18 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="4"/>
+      <c r="B49" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49" s="5"/>
       <c r="D49" s="0">
         <f>INDIRECT(ADDRESS(49; (C49 + 5)))</f>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>5</v>
+      <c r="E49" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1</v>
@@ -1380,18 +1389,18 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="3" t="s">
+      <c r="A50" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="B50" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C50" s="5"/>
       <c r="D50" s="0">
         <f>INDIRECT(ADDRESS(50; (C50 + 5)))</f>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>5</v>
+      <c r="E50" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
@@ -1401,18 +1410,18 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="5"/>
       <c r="D51" s="0">
         <f>INDIRECT(ADDRESS(51; (C51 + 5)))</f>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>5</v>
+      <c r="E51" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1</v>
@@ -1422,18 +1431,18 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="3" t="s">
+      <c r="A52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C52" s="4"/>
+      <c r="B52" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C52" s="5"/>
       <c r="D52" s="0">
         <f>INDIRECT(ADDRESS(52; (C52 + 5)))</f>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+      <c r="E52" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>1</v>
@@ -1442,48 +1451,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="2" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="B53" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="0">
+        <f>INDIRECT(ADDRESS(53; (C53 + 5)))</f>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="0">
-        <f>INDIRECT(ADDRESS(55; (C55 + 5)))</f>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0" t="n">
-        <v>0</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B56" s="3" t="s">
+      <c r="A56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C56" s="4"/>
+      <c r="B56" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="5"/>
       <c r="D56" s="0">
         <f>INDIRECT(ADDRESS(56; (C56 + 5)))</f>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>5</v>
+      <c r="E56" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
@@ -1493,18 +1502,18 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="3" t="s">
+      <c r="A57" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="4"/>
+      <c r="B57" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="5"/>
       <c r="D57" s="0">
         <f>INDIRECT(ADDRESS(57; (C57 + 5)))</f>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>5</v>
+      <c r="E57" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
@@ -1514,18 +1523,18 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="3" t="s">
+      <c r="A58" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C58" s="4"/>
+      <c r="B58" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="5"/>
       <c r="D58" s="0">
         <f>INDIRECT(ADDRESS(58; (C58 + 5)))</f>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>5</v>
+      <c r="E58" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
@@ -1535,18 +1544,18 @@
       </c>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="A59" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="4"/>
+      <c r="B59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="5"/>
       <c r="D59" s="0">
         <f>INDIRECT(ADDRESS(59; (C59 + 5)))</f>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
+      <c r="E59" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>1</v>
@@ -1555,48 +1564,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="2" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="62" spans="1:7">
+      <c r="B60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="0">
+        <f>INDIRECT(ADDRESS(60; (C60 + 5)))</f>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C62" s="4"/>
-      <c r="D62" s="0">
-        <f>INDIRECT(ADDRESS(62; (C62 + 5)))</f>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="0" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C63" s="4"/>
+      <c r="B63" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C63" s="5"/>
       <c r="D63" s="0">
         <f>INDIRECT(ADDRESS(63; (C63 + 5)))</f>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>5</v>
+      <c r="E63" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>1</v>
@@ -1606,18 +1615,18 @@
       </c>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="A64" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="4"/>
+      <c r="B64" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C64" s="5"/>
       <c r="D64" s="0">
         <f>INDIRECT(ADDRESS(64; (C64 + 5)))</f>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>5</v>
+      <c r="E64" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F64" s="0" t="n">
         <v>1</v>
@@ -1627,18 +1636,18 @@
       </c>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="A65" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C65" s="4"/>
+      <c r="B65" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C65" s="5"/>
       <c r="D65" s="0">
         <f>INDIRECT(ADDRESS(65; (C65 + 5)))</f>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>5</v>
+      <c r="E65" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>1</v>
@@ -1648,18 +1657,18 @@
       </c>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B66" s="3" t="s">
+      <c r="A66" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C66" s="4"/>
+      <c r="B66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="5"/>
       <c r="D66" s="0">
         <f>INDIRECT(ADDRESS(66; (C66 + 5)))</f>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>5</v>
+      <c r="E66" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F66" s="0" t="n">
         <v>1</v>
@@ -1669,18 +1678,18 @@
       </c>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" s="3" t="s">
+      <c r="A67" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C67" s="4"/>
+      <c r="B67" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="5"/>
       <c r="D67" s="0">
         <f>INDIRECT(ADDRESS(67; (C67 + 5)))</f>
       </c>
-      <c r="E67" s="3" t="s">
-        <v>5</v>
+      <c r="E67" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>1</v>
@@ -1690,18 +1699,18 @@
       </c>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="3" t="s">
+      <c r="A68" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C68" s="4"/>
+      <c r="B68" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="5"/>
       <c r="D68" s="0">
         <f>INDIRECT(ADDRESS(68; (C68 + 5)))</f>
       </c>
-      <c r="E68" s="3" t="s">
-        <v>5</v>
+      <c r="E68" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F68" s="0" t="n">
         <v>1</v>
@@ -1711,18 +1720,18 @@
       </c>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="3" t="s">
+      <c r="A69" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="4"/>
+      <c r="B69" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="5"/>
       <c r="D69" s="0">
         <f>INDIRECT(ADDRESS(69; (C69 + 5)))</f>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>5</v>
+      <c r="E69" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>1</v>
@@ -1731,24 +1740,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
-      <c r="B72" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C72" s="2">
-        <f>SUM(D1:D71)</f>
+    <row r="70" spans="1:7">
+      <c r="A70" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="0">
+        <f>INDIRECT(ADDRESS(70; (C70 + 5)))</f>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C73" s="2" t="n">
+      <c r="B73" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C73" s="3">
+        <f>SUM(D1:D72)</f>
+      </c>
+    </row>
+    <row r="74" spans="2:3">
+      <c r="B74" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C74" s="3" t="n">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>IFG Self-Audit</t>
   </si>
@@ -25,12 +25,6 @@
     <t>Antwortmöglichkeit</t>
   </si>
   <si>
-    <t>Teil 1</t>
-  </si>
-  <si>
-    <t>Rechtliche und organisatorische Voraussetzungen</t>
-  </si>
-  <si>
     <t>1.1</t>
   </si>
   <si>
@@ -124,12 +118,6 @@
     <t>Existiert ein effektives System, durch das Fehler bei der Bearbeitung von Anfragen vermieden werden und Teile der Arbeit automatisiert werden?</t>
   </si>
   <si>
-    <t>Teil 2</t>
-  </si>
-  <si>
-    <t>Behördenkultur</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -178,12 +166,6 @@
     <t>Wird dies von der Behördenleitung überwacht?</t>
   </si>
   <si>
-    <t>Teil 3</t>
-  </si>
-  <si>
-    <t>Umgang mit Anfragen</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -220,12 +202,6 @@
     <t>Werden die Ausnahmetatbestände eng ausgelegt?</t>
   </si>
   <si>
-    <t>Teil 4</t>
-  </si>
-  <si>
-    <t>Umgang mit Bescheiden</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
@@ -304,12 +280,6 @@
     <t>Werden Widersprüche unverzüglich bearbeitet?</t>
   </si>
   <si>
-    <t>Teil 5</t>
-  </si>
-  <si>
-    <t>Datenschutz und Drittbeteiligung</t>
-  </si>
-  <si>
     <t>5.1</t>
   </si>
   <si>
@@ -338,12 +308,6 @@
   </si>
   <si>
     <t>Werden Vorkehrungen getroffen, um Drittbeteiligungen nicht veranlassen zu müssen (z.B. bei Vertragserstellung Markierung schutzwürdiger Informationen)?</t>
-  </si>
-  <si>
-    <t>Teil 6</t>
-  </si>
-  <si>
-    <t>Kommunikation</t>
   </si>
   <si>
     <t>6.1</t>
@@ -426,13 +390,13 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF001C5A"/>
       <name val="Inter"/>
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color rgb="FF001C5A"/>
       <name val="Inter"/>
@@ -488,11 +452,11 @@
     <xf applyFont="1" fontId="3" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf applyFont="1" fontId="4" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf applyFont="1" fontId="4" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf applyFont="1" fontId="3" applyFill="1" fillId="2" applyBorder="1" borderId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
 </styleSheet>
@@ -538,7 +502,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I74"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -570,48 +534,82 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="0">
+        <f>INDIRECT(ADDRESS(5; (C5 + 5)))</f>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="0">
+        <f>INDIRECT(ADDRESS(6; (C6 + 5)))</f>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="5"/>
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="0">
         <f>INDIRECT(ADDRESS(7; (C7 + 5)))</f>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>8</v>
+      <c r="E7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="5"/>
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4"/>
       <c r="D8" s="0">
         <f>INDIRECT(ADDRESS(8; (C8 + 5)))</f>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
+      <c r="E8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>1</v>
@@ -620,40 +618,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="5"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4"/>
       <c r="D9" s="0">
         <f>INDIRECT(ADDRESS(9; (C9 + 5)))</f>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>8</v>
+      <c r="E9" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5"/>
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4"/>
       <c r="D10" s="0">
         <f>INDIRECT(ADDRESS(10; (C10 + 5)))</f>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>8</v>
+      <c r="E10" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>1</v>
@@ -662,46 +666,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="5"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="0">
         <f>INDIRECT(ADDRESS(11; (C11 + 5)))</f>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>17</v>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4"/>
       <c r="D12" s="0">
         <f>INDIRECT(ADDRESS(12; (C12 + 5)))</f>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>8</v>
+      <c r="E12" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>1</v>
@@ -710,40 +708,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="5"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="0">
         <f>INDIRECT(ADDRESS(13; (C13 + 5)))</f>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>8</v>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="5"/>
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4"/>
       <c r="D14" s="0">
         <f>INDIRECT(ADDRESS(14; (C14 + 5)))</f>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>8</v>
+      <c r="E14" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>1</v>
@@ -752,43 +753,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="5"/>
+    <row r="15" spans="1:7">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="0">
         <f>INDIRECT(ADDRESS(15; (C15 + 5)))</f>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>26</v>
+      <c r="E15" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="5"/>
+      <c r="A16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="4"/>
       <c r="D16" s="0">
         <f>INDIRECT(ADDRESS(16; (C16 + 5)))</f>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>8</v>
+      <c r="E16" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>1</v>
@@ -798,18 +796,18 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="A17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="0">
         <f>INDIRECT(ADDRESS(17; (C17 + 5)))</f>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>8</v>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>1</v>
@@ -819,18 +817,18 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="5"/>
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4"/>
       <c r="D18" s="0">
         <f>INDIRECT(ADDRESS(18; (C18 + 5)))</f>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>8</v>
+      <c r="E18" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>1</v>
@@ -840,18 +838,18 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5"/>
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4"/>
       <c r="D19" s="0">
         <f>INDIRECT(ADDRESS(19; (C19 + 5)))</f>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>8</v>
+      <c r="E19" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>1</v>
@@ -861,18 +859,18 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="5"/>
+      <c r="A20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="4"/>
       <c r="D20" s="0">
         <f>INDIRECT(ADDRESS(20; (C20 + 5)))</f>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>8</v>
+      <c r="E20" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>1</v>
@@ -881,27 +879,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="21" spans="1:7">
+      <c r="A21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="0">
+        <f>INDIRECT(ADDRESS(21; (C21 + 5)))</f>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="0">
+        <f>INDIRECT(ADDRESS(22; (C22 + 5)))</f>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="5"/>
+      <c r="A23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="4"/>
       <c r="D23" s="0">
         <f>INDIRECT(ADDRESS(23; (C23 + 5)))</f>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>8</v>
+      <c r="E23" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>1</v>
@@ -911,18 +943,18 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="5"/>
+      <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="0">
         <f>INDIRECT(ADDRESS(24; (C24 + 5)))</f>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>8</v>
+      <c r="E24" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>1</v>
@@ -932,18 +964,18 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="5"/>
+      <c r="A25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="0">
         <f>INDIRECT(ADDRESS(25; (C25 + 5)))</f>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>8</v>
+      <c r="E25" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>1</v>
@@ -953,18 +985,18 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="5"/>
+      <c r="A26" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="0">
         <f>INDIRECT(ADDRESS(26; (C26 + 5)))</f>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>8</v>
+      <c r="E26" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>1</v>
@@ -974,18 +1006,18 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="5"/>
+      <c r="A27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="0">
         <f>INDIRECT(ADDRESS(27; (C27 + 5)))</f>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>8</v>
+      <c r="E27" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>1</v>
@@ -995,18 +1027,18 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="5"/>
+      <c r="A28" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="0">
         <f>INDIRECT(ADDRESS(28; (C28 + 5)))</f>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>8</v>
+      <c r="E28" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>1</v>
@@ -1016,18 +1048,18 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" s="5"/>
+      <c r="A29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="0">
         <f>INDIRECT(ADDRESS(29; (C29 + 5)))</f>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>8</v>
+      <c r="E29" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>1</v>
@@ -1037,18 +1069,18 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="5"/>
+      <c r="A30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="0">
         <f>INDIRECT(ADDRESS(30; (C30 + 5)))</f>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>8</v>
+      <c r="E30" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>1</v>
@@ -1057,27 +1089,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="31" spans="1:7">
+      <c r="A31" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="0">
+        <f>INDIRECT(ADDRESS(31; (C31 + 5)))</f>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>56</v>
+        <v>62</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="0">
+        <f>INDIRECT(ADDRESS(32; (C32 + 5)))</f>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="5"/>
+      <c r="A33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="0">
         <f>INDIRECT(ADDRESS(33; (C33 + 5)))</f>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>8</v>
+      <c r="E33" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>1</v>
@@ -1087,18 +1153,18 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="5"/>
+      <c r="A34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="4"/>
       <c r="D34" s="0">
         <f>INDIRECT(ADDRESS(34; (C34 + 5)))</f>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>8</v>
+      <c r="E34" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F34" s="0" t="n">
         <v>1</v>
@@ -1108,18 +1174,18 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="5"/>
+      <c r="A35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="0">
         <f>INDIRECT(ADDRESS(35; (C35 + 5)))</f>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>8</v>
+      <c r="E35" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>1</v>
@@ -1129,18 +1195,18 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="5"/>
+      <c r="A36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="0">
         <f>INDIRECT(ADDRESS(36; (C36 + 5)))</f>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>8</v>
+      <c r="E36" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>1</v>
@@ -1150,18 +1216,18 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C37" s="5"/>
+      <c r="A37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="4"/>
       <c r="D37" s="0">
         <f>INDIRECT(ADDRESS(37; (C37 + 5)))</f>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>8</v>
+      <c r="E37" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>1</v>
@@ -1171,18 +1237,18 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="5"/>
+      <c r="A38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="4"/>
       <c r="D38" s="0">
         <f>INDIRECT(ADDRESS(38; (C38 + 5)))</f>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>8</v>
+      <c r="E38" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>1</v>
@@ -1191,27 +1257,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="39" spans="1:7">
+      <c r="A39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="0">
+        <f>INDIRECT(ADDRESS(39; (C39 + 5)))</f>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>78</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="0">
+        <f>INDIRECT(ADDRESS(40; (C40 + 5)))</f>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="5"/>
+      <c r="A41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="4"/>
       <c r="D41" s="0">
         <f>INDIRECT(ADDRESS(41; (C41 + 5)))</f>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>8</v>
+      <c r="E41" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>1</v>
@@ -1221,18 +1321,18 @@
       </c>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C42" s="5"/>
+      <c r="A42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="4"/>
       <c r="D42" s="0">
         <f>INDIRECT(ADDRESS(42; (C42 + 5)))</f>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>8</v>
+      <c r="E42" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>1</v>
@@ -1242,18 +1342,18 @@
       </c>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="5"/>
+      <c r="A43" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="4"/>
       <c r="D43" s="0">
         <f>INDIRECT(ADDRESS(43; (C43 + 5)))</f>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>8</v>
+      <c r="E43" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>1</v>
@@ -1263,18 +1363,18 @@
       </c>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="5"/>
+      <c r="A44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="4"/>
       <c r="D44" s="0">
         <f>INDIRECT(ADDRESS(44; (C44 + 5)))</f>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>8</v>
+      <c r="E44" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F44" s="0" t="n">
         <v>1</v>
@@ -1284,18 +1384,18 @@
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="5"/>
+      <c r="A45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="4"/>
       <c r="D45" s="0">
         <f>INDIRECT(ADDRESS(45; (C45 + 5)))</f>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>8</v>
+      <c r="E45" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>1</v>
@@ -1305,18 +1405,18 @@
       </c>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="5"/>
+      <c r="A46" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="0">
         <f>INDIRECT(ADDRESS(46; (C46 + 5)))</f>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>8</v>
+      <c r="E46" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>1</v>
@@ -1326,18 +1426,18 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="5"/>
+      <c r="A47" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="4"/>
       <c r="D47" s="0">
         <f>INDIRECT(ADDRESS(47; (C47 + 5)))</f>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>8</v>
+      <c r="E47" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>1</v>
@@ -1347,18 +1447,18 @@
       </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" s="5"/>
+      <c r="A48" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="0">
         <f>INDIRECT(ADDRESS(48; (C48 + 5)))</f>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>8</v>
+      <c r="E48" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>1</v>
@@ -1368,18 +1468,18 @@
       </c>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C49" s="5"/>
+      <c r="A49" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="0">
         <f>INDIRECT(ADDRESS(49; (C49 + 5)))</f>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>8</v>
+      <c r="E49" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>1</v>
@@ -1389,18 +1489,18 @@
       </c>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" s="5"/>
+      <c r="A50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="4"/>
       <c r="D50" s="0">
         <f>INDIRECT(ADDRESS(50; (C50 + 5)))</f>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>8</v>
+      <c r="E50" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>1</v>
@@ -1410,18 +1510,18 @@
       </c>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C51" s="5"/>
+      <c r="A51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="0">
         <f>INDIRECT(ADDRESS(51; (C51 + 5)))</f>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>8</v>
+      <c r="E51" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>1</v>
@@ -1431,18 +1531,18 @@
       </c>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="5"/>
+      <c r="A52" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="4"/>
       <c r="D52" s="0">
         <f>INDIRECT(ADDRESS(52; (C52 + 5)))</f>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>8</v>
+      <c r="E52" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>1</v>
@@ -1452,18 +1552,18 @@
       </c>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="5"/>
+      <c r="A53" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="4"/>
       <c r="D53" s="0">
         <f>INDIRECT(ADDRESS(53; (C53 + 5)))</f>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>8</v>
+      <c r="E53" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>1</v>
@@ -1472,27 +1572,61 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="54" spans="1:7">
+      <c r="A54" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="0">
+        <f>INDIRECT(ADDRESS(54; (C54 + 5)))</f>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>98</v>
+        <v>108</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="0">
+        <f>INDIRECT(ADDRESS(55; (C55 + 5)))</f>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C56" s="5"/>
+      <c r="A56" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C56" s="4"/>
       <c r="D56" s="0">
         <f>INDIRECT(ADDRESS(56; (C56 + 5)))</f>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>8</v>
+      <c r="E56" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F56" s="0" t="n">
         <v>1</v>
@@ -1502,18 +1636,18 @@
       </c>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C57" s="5"/>
+      <c r="A57" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="4"/>
       <c r="D57" s="0">
         <f>INDIRECT(ADDRESS(57; (C57 + 5)))</f>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>8</v>
+      <c r="E57" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>1</v>
@@ -1523,18 +1657,18 @@
       </c>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="5"/>
+      <c r="A58" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="4"/>
       <c r="D58" s="0">
         <f>INDIRECT(ADDRESS(58; (C58 + 5)))</f>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>8</v>
+      <c r="E58" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F58" s="0" t="n">
         <v>1</v>
@@ -1543,237 +1677,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="0">
-        <f>INDIRECT(ADDRESS(59; (C59 + 5)))</f>
-      </c>
-      <c r="E59" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G59" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="0">
-        <f>INDIRECT(ADDRESS(60; (C60 + 5)))</f>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="0">
-        <f>INDIRECT(ADDRESS(63; (C63 + 5)))</f>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C64" s="5"/>
-      <c r="D64" s="0">
-        <f>INDIRECT(ADDRESS(64; (C64 + 5)))</f>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="4" t="s">
+    <row r="61" spans="2:3">
+      <c r="B61" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="C61" s="5">
+        <f>SUM(D1:D60)</f>
+      </c>
+    </row>
+    <row r="62" spans="2:3">
+      <c r="B62" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="0">
-        <f>INDIRECT(ADDRESS(65; (C65 + 5)))</f>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="0">
-        <f>INDIRECT(ADDRESS(66; (C66 + 5)))</f>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="0">
-        <f>INDIRECT(ADDRESS(67; (C67 + 5)))</f>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F67" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="5"/>
-      <c r="D68" s="0">
-        <f>INDIRECT(ADDRESS(68; (C68 + 5)))</f>
-      </c>
-      <c r="E68" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C69" s="5"/>
-      <c r="D69" s="0">
-        <f>INDIRECT(ADDRESS(69; (C69 + 5)))</f>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="5"/>
-      <c r="D70" s="0">
-        <f>INDIRECT(ADDRESS(70; (C70 + 5)))</f>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3">
-      <c r="B73" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C73" s="3">
-        <f>SUM(D1:D72)</f>
-      </c>
-    </row>
-    <row r="74" spans="2:3">
-      <c r="B74" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C74" s="3" t="n">
+      <c r="C62" s="5" t="n">
         <v>61</v>
       </c>
     </row>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -591,7 +591,7 @@
         <v>6</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -549,7 +549,7 @@
         <v>6</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -570,7 +570,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -612,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -55,7 +55,7 @@
     <t>1.3.2</t>
   </si>
   <si>
-    <t>Wie viele Personenstellen sind vorgesehen?</t>
+    <t>Wie viele Personalstellen sind vorgesehen?</t>
   </si>
   <si>
     <t>(1) Keine; (2) Zwischen 1 und 3; (3) Zwischen 3 und 5; (4) Zwischen 5 und 10</t>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1671,7 +1671,7 @@
         <v>6</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G58" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1650,7 +1650,7 @@
         <v>6</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1629,7 +1629,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1608,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1587,7 +1587,7 @@
         <v>6</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1566,7 +1566,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1545,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1524,7 +1524,7 @@
         <v>6</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G51" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1503,7 +1503,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1482,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1461,7 +1461,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1440,7 +1440,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1419,7 +1419,7 @@
         <v>6</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1398,7 +1398,7 @@
         <v>6</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1377,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>0</v>
@@ -1690,7 +1690,7 @@
         <v>116</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>IFG Self-Audit</t>
   </si>
@@ -260,12 +260,6 @@
   </si>
   <si>
     <t>Hat sich die Bearbeitungszeit verändert in letzter Zeit?</t>
-  </si>
-  <si>
-    <t>4.7.4</t>
-  </si>
-  <si>
-    <t>Wie reagiert die Behörde auf einen Anstieg von Anfragen?</t>
   </si>
   <si>
     <t>4.8</t>
@@ -502,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I61"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -1356,7 +1350,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>0</v>
@@ -1398,7 +1392,7 @@
         <v>6</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>0</v>
@@ -1440,7 +1434,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>0</v>
@@ -1482,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G49" s="0" t="n">
         <v>0</v>
@@ -1545,7 +1539,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>0</v>
@@ -1566,7 +1560,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>0</v>
@@ -1587,7 +1581,7 @@
         <v>6</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>0</v>
@@ -1608,7 +1602,7 @@
         <v>6</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>0</v>
@@ -1629,7 +1623,7 @@
         <v>6</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>0</v>
@@ -1650,47 +1644,26 @@
         <v>6</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G57" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="3" t="s">
+    <row r="60" spans="2:3">
+      <c r="B60" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C58" s="4"/>
-      <c r="D58" s="0">
-        <f>INDIRECT(ADDRESS(58; (C58 + 5)))</f>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G58" s="0" t="n">
-        <v>0</v>
+      <c r="C60" s="5">
+        <f>SUM(D1:D59)</f>
       </c>
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="5">
-        <f>SUM(D1:D60)</f>
-      </c>
-    </row>
-    <row r="62" spans="2:3">
-      <c r="B62" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" s="5" t="n">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="C61" s="5" t="n">
+        <v>118</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -654,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -675,7 +675,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -696,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -741,7 +741,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -783,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -804,7 +804,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -825,7 +825,7 @@
         <v>6</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1014,7 +1014,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1035,7 +1035,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -846,7 +846,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -867,7 +867,7 @@
         <v>6</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -888,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -909,7 +909,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -930,7 +930,7 @@
         <v>6</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -951,7 +951,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -972,7 +972,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -993,7 +993,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1077,7 +1077,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1098,7 +1098,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1119,7 +1119,7 @@
         <v>6</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1140,7 +1140,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1161,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1182,7 +1182,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1203,7 +1203,7 @@
         <v>6</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -229,7 +229,7 @@
     <t>4.4</t>
   </si>
   <si>
-    <t>Werden Informationen in der Form und dem Format herausgegeben, das begehrt wird?</t>
+    <t>Werden Informationen in der Form und dem Format herausgegeben, die begehrt werden?</t>
   </si>
   <si>
     <t>4.5</t>
@@ -1224,7 +1224,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1245,7 +1245,7 @@
         <v>6</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G38" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1266,7 +1266,7 @@
         <v>6</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1287,7 +1287,7 @@
         <v>6</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G40" s="0" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>114</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <si>
     <t>IFG Self-Audit</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Wie viele Anfragen werden innerhalb der Frist beantwortet, wie viele nicht?</t>
+  </si>
+  <si>
+    <t>(1) Mehr als 75 Prozent; (2) Mehr als 50 Prozent; (3) Mehr als 25 Prozent</t>
   </si>
   <si>
     <t>4.7.3</t>
@@ -1293,7 +1296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -1305,21 +1308,24 @@
         <f>INDIRECT(ADDRESS(41; (C41 + 5)))</f>
       </c>
       <c r="E41" s="3" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="F41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="G41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="0" t="n">
+      <c r="H41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="0">
@@ -1337,10 +1343,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="0">
@@ -1358,10 +1364,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="0">
@@ -1379,10 +1385,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="0">
@@ -1400,10 +1406,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="0">
@@ -1421,10 +1427,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="0">
@@ -1442,10 +1448,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="0">
@@ -1463,10 +1469,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="0">
@@ -1484,10 +1490,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="0">
@@ -1505,10 +1511,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="0">
@@ -1526,10 +1532,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="0">
@@ -1547,10 +1553,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="0">
@@ -1568,10 +1574,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="0">
@@ -1589,10 +1595,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="0">
@@ -1610,10 +1616,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="0">
@@ -1631,10 +1637,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="0">
@@ -1652,7 +1658,7 @@
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="5">
         <f>SUM(D1:D59)</f>
@@ -1660,10 +1666,10 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>IFG Self-Audit</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Hat sich die Bearbeitungszeit verändert in letzter Zeit?</t>
+  </si>
+  <si>
+    <t>(1) Besser oder gleich; (2) Schlechter</t>
   </si>
   <si>
     <t>4.8</t>
@@ -1332,10 +1335,10 @@
         <f>INDIRECT(ADDRESS(42; (C42 + 5)))</f>
       </c>
       <c r="E42" s="3" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>0</v>
@@ -1343,10 +1346,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="0">
@@ -1364,10 +1367,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="0">
@@ -1385,10 +1388,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="0">
@@ -1406,10 +1409,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="0">
@@ -1427,10 +1430,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="0">
@@ -1448,10 +1451,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="0">
@@ -1469,10 +1472,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="0">
@@ -1490,10 +1493,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="0">
@@ -1511,10 +1514,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="0">
@@ -1532,10 +1535,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="0">
@@ -1553,10 +1556,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="0">
@@ -1574,10 +1577,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="0">
@@ -1595,10 +1598,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="0">
@@ -1616,10 +1619,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="0">
@@ -1637,10 +1640,10 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="0">
@@ -1658,7 +1661,7 @@
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C60" s="5">
         <f>SUM(D1:D59)</f>
@@ -1666,10 +1669,10 @@
     </row>
     <row r="61" spans="2:3">
       <c r="B61" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -768,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1569,7 +1569,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1020,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1062,7 +1062,7 @@
         <v>6</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1083,7 +1083,7 @@
         <v>6</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G30" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1104,7 +1104,7 @@
         <v>6</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1146,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1167,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1230,7 +1230,7 @@
         <v>6</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G37" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -1272,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G39" s="0" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>116</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -211,7 +211,7 @@
     <t>4.2</t>
   </si>
   <si>
-    <t>Werden (teilweise) Ablehnung eindeutig und verständlich sowie konkret auf den Einzelfall bezogen begründet?</t>
+    <t>Werden (teilweise) Ablehnungen eindeutig und verständlich sowie konkret auf den Einzelfall bezogen begründet?</t>
   </si>
   <si>
     <t>4.3.1</t>
@@ -253,10 +253,10 @@
     <t>4.7.2</t>
   </si>
   <si>
-    <t>Wie viele Anfragen werden innerhalb der Frist beantwortet, wie viele nicht?</t>
-  </si>
-  <si>
-    <t>(1) Mehr als 75 Prozent; (2) Mehr als 50 Prozent; (3) Mehr als 25 Prozent</t>
+    <t>Wie viele Anfragen werden innerhalb der Frist beantwortet?</t>
+  </si>
+  <si>
+    <t>(1) Mehr als 75 Prozent; (2) Mehr als 50 Prozent; (3) Weniger als 50 Prozent</t>
   </si>
   <si>
     <t>4.7.3</t>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -85,7 +85,7 @@
     <t>Wie viel Wissen zu IFG-Anfragen ist niedergeschrieben?</t>
   </si>
   <si>
-    <t>(1) nichts bis wenig; (2) einiges; (3) viel</t>
+    <t>(1) nichts; (2) einiges; (3) ausreichend</t>
   </si>
   <si>
     <t>1.6.1</t>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>IFG Self-Audit</t>
   </si>
@@ -43,6 +43,12 @@
     <t>1.2.2</t>
   </si>
   <si>
+    <t>Gibt es eine:n behördliche:n Beauftragte:r für Informationsfreiheit?</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
     <t>Gibt es eine öffentlich zugängliche Kontaktmöglichkeit?</t>
   </si>
   <si>
@@ -55,10 +61,7 @@
     <t>1.3.2</t>
   </si>
   <si>
-    <t>Wie viele Personalstellen sind vorgesehen?</t>
-  </si>
-  <si>
-    <t>(1) Keine; (2) Zwischen 1 und 3; (3) Zwischen 3 und 5; (4) Zwischen 5 und 10</t>
+    <t>Sind für die Beantwortung von IFG-Anfragen ausreichend Mitarbeitende vorgesehen?</t>
   </si>
   <si>
     <t>1.4.1</t>
@@ -67,27 +70,12 @@
     <t>Gibt es ein Training für zuständige Stellen?</t>
   </si>
   <si>
-    <t>1.4.2</t>
-  </si>
-  <si>
-    <t>Ist dieses Training verpflichtend?</t>
-  </si>
-  <si>
-    <t>1.5.1</t>
+    <t>1.5</t>
   </si>
   <si>
     <t>Gibt es ein behördeninternes Wissensmanagement zum Umgang mit IFG-Anfragen?</t>
   </si>
   <si>
-    <t>1.5.2</t>
-  </si>
-  <si>
-    <t>Wie viel Wissen zu IFG-Anfragen ist niedergeschrieben?</t>
-  </si>
-  <si>
-    <t>(1) nichts; (2) einiges; (3) ausreichend</t>
-  </si>
-  <si>
     <t>1.6.1</t>
   </si>
   <si>
@@ -160,12 +148,6 @@
     <t>Werden regelmäßig Verbesserungen im IFG-Management eingeführt?</t>
   </si>
   <si>
-    <t>2.5.4</t>
-  </si>
-  <si>
-    <t>Wird dies von der Behördenleitung überwacht?</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -205,7 +187,7 @@
     <t>4.1</t>
   </si>
   <si>
-    <t>Enthalten Bescheide eine klare Rechtsbehelfsbelehrung?</t>
+    <t>Enthalten ablehnende Bescheide eine klare Rechtsbehelfsbelehrung?</t>
   </si>
   <si>
     <t>4.2</t>
@@ -256,16 +238,16 @@
     <t>Wie viele Anfragen werden innerhalb der Frist beantwortet?</t>
   </si>
   <si>
-    <t>(1) Mehr als 75 Prozent; (2) Mehr als 50 Prozent; (3) Weniger als 50 Prozent</t>
+    <t>(1) Nahezu alle; (2) Mehr als 75 Prozent; (3) Mehr als 50 Prozent; (4) Weniger als 50 Prozent</t>
   </si>
   <si>
     <t>4.7.3</t>
   </si>
   <si>
-    <t>Hat sich die Bearbeitungszeit verändert in letzter Zeit?</t>
-  </si>
-  <si>
-    <t>(1) Besser oder gleich; (2) Schlechter</t>
+    <t>Hat sich die Bearbeitungsdauer in letzter Zeit verändert?</t>
+  </si>
+  <si>
+    <t>(1) Besser oder gleich; (2) Verschlechtert</t>
   </si>
   <si>
     <t>4.8</t>
@@ -325,7 +307,7 @@
     <t>6.3</t>
   </si>
   <si>
-    <t>Werden weitere Infos wie Pläne und Gesetzesvorhaben aktiv auf der Website veröffentlicht?</t>
+    <t>Werden weitere Infos wie Pläne und Gesetzesvorhaben proaktiv auf der Website veröffentlicht?</t>
   </si>
   <si>
     <t>6.4</t>
@@ -356,6 +338,12 @@
   </si>
   <si>
     <t>Steht die Behörde im Kontakt mit Bürger:innen, um Feedback entgegenzunehmen und ihre Arbeit zu verbessern?</t>
+  </si>
+  <si>
+    <t>6.9</t>
+  </si>
+  <si>
+    <t>Steht die Behörde im Kontakt mit der/dem zuständigen Informationsfreiheitsbeauftragten, um sich fachlich beraten/unterstützen zu lassen?</t>
   </si>
   <si>
     <t>Erreichte Punkte</t>
@@ -502,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I61"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView showGridLines="false" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -570,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>0</v>
@@ -612,13 +600,13 @@
         <v>6</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -630,27 +618,21 @@
         <f>INDIRECT(ADDRESS(9; (C9 + 5)))</f>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="0">
@@ -668,10 +650,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="0">
@@ -681,7 +663,7 @@
         <v>6</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>0</v>
@@ -689,10 +671,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="0">
@@ -708,36 +690,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:7">
       <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="0">
         <f>INDIRECT(ADDRESS(13; (C13 + 5)))</f>
       </c>
       <c r="E13" s="3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="0">
@@ -755,10 +734,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="0">
@@ -776,10 +755,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="0">
@@ -789,7 +768,7 @@
         <v>6</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0</v>
@@ -797,10 +776,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="0">
@@ -810,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0</v>
@@ -818,10 +797,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="0">
@@ -839,10 +818,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="0">
@@ -852,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>0</v>
@@ -860,10 +839,10 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="0">
@@ -881,10 +860,10 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="0">
@@ -894,7 +873,7 @@
         <v>6</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>0</v>
@@ -902,10 +881,10 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="0">
@@ -915,7 +894,7 @@
         <v>6</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>0</v>
@@ -923,10 +902,10 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="0">
@@ -944,10 +923,10 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="0">
@@ -957,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>0</v>
@@ -965,10 +944,10 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="0">
@@ -978,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>0</v>
@@ -986,10 +965,10 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="0">
@@ -999,7 +978,7 @@
         <v>6</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>0</v>
@@ -1007,10 +986,10 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="0">
@@ -1028,10 +1007,10 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="0">
@@ -1041,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" s="0" t="n">
         <v>0</v>
@@ -1049,10 +1028,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="0">
@@ -1070,10 +1049,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="0">
@@ -1091,10 +1070,10 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="0">
@@ -1112,10 +1091,10 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="0">
@@ -1133,10 +1112,10 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="0">
@@ -1146,7 +1125,7 @@
         <v>6</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>0</v>
@@ -1154,10 +1133,10 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="0">
@@ -1167,7 +1146,7 @@
         <v>6</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>0</v>
@@ -1175,10 +1154,10 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="0">
@@ -1188,7 +1167,7 @@
         <v>6</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>0</v>
@@ -1196,10 +1175,10 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="0">
@@ -1217,10 +1196,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="0">
@@ -1238,10 +1217,10 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="0">
@@ -1257,40 +1236,46 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="0">
         <f>INDIRECT(ADDRESS(39; (C39 + 5)))</f>
       </c>
       <c r="E39" s="3" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="0">
         <f>INDIRECT(ADDRESS(40; (C40 + 5)))</f>
       </c>
       <c r="E40" s="3" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>3</v>
@@ -1299,7 +1284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:7">
       <c r="A41" s="3" t="s">
         <v>79</v>
       </c>
@@ -1311,31 +1296,28 @@
         <f>INDIRECT(ADDRESS(41; (C41 + 5)))</f>
       </c>
       <c r="E41" s="3" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="H41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="0">
         <f>INDIRECT(ADDRESS(42; (C42 + 5)))</f>
       </c>
       <c r="E42" s="3" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="F42" s="0" t="n">
         <v>3</v>
@@ -1346,10 +1328,10 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="0">
@@ -1359,7 +1341,7 @@
         <v>6</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>0</v>
@@ -1367,10 +1349,10 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="0">
@@ -1380,7 +1362,7 @@
         <v>6</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>0</v>
@@ -1388,10 +1370,10 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="0">
@@ -1401,7 +1383,7 @@
         <v>6</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>0</v>
@@ -1409,10 +1391,10 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="0">
@@ -1422,7 +1404,7 @@
         <v>6</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G46" s="0" t="n">
         <v>0</v>
@@ -1430,10 +1412,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="0">
@@ -1443,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G47" s="0" t="n">
         <v>0</v>
@@ -1451,10 +1433,10 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="0">
@@ -1464,7 +1446,7 @@
         <v>6</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" s="0" t="n">
         <v>0</v>
@@ -1472,10 +1454,10 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="0">
@@ -1493,10 +1475,10 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="0">
@@ -1506,7 +1488,7 @@
         <v>6</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G50" s="0" t="n">
         <v>0</v>
@@ -1514,10 +1496,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="0">
@@ -1535,10 +1517,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="0">
@@ -1548,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52" s="0" t="n">
         <v>0</v>
@@ -1556,10 +1538,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="0">
@@ -1569,7 +1551,7 @@
         <v>6</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>0</v>
@@ -1577,10 +1559,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C54" s="4"/>
       <c r="D54" s="0">
@@ -1590,7 +1572,7 @@
         <v>6</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>0</v>
@@ -1598,10 +1580,10 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="0">
@@ -1619,10 +1601,10 @@
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C56" s="4"/>
       <c r="D56" s="0">
@@ -1632,46 +1614,25 @@
         <v>6</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C57" s="4"/>
-      <c r="D57" s="0">
-        <f>INDIRECT(ADDRESS(57; (C57 + 5)))</f>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="G57" s="0" t="n">
-        <v>0</v>
+    <row r="59" spans="2:3">
+      <c r="B59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="5">
+        <f>SUM(D1:D58)</f>
       </c>
     </row>
     <row r="60" spans="2:3">
       <c r="B60" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C60" s="5">
-        <f>SUM(D1:D59)</f>
-      </c>
-    </row>
-    <row r="61" spans="2:3">
-      <c r="B61" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C61" s="5" t="n">
+        <v>112</v>
+      </c>
+      <c r="C60" s="5" t="n">
         <v>200</v>
       </c>
     </row>

--- a/questionnaire.xlsx
+++ b/questionnaire.xlsx
@@ -429,6 +429,9 @@
       <diagonal/>
     </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  </cellStyleXfs>
   <cellXfs count="6">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1" applyAlignment="1">
@@ -447,6 +450,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
